--- a/biology/Zoologie/Johann_Matthäus_Bechstein/Johann_Matthäus_Bechstein.xlsx
+++ b/biology/Zoologie/Johann_Matthäus_Bechstein/Johann_Matthäus_Bechstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Matth%C3%A4us_Bechstein</t>
+          <t>Johann_Matthäus_Bechstein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Matthäus Bechstein est un zoologiste, naturaliste et un forestier allemand, né le 11 juillet 1757 à Waltershausen et mort le 23 février 1822 à Meiningen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Matth%C3%A4us_Bechstein</t>
+          <t>Johann_Matthäus_Bechstein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Matthäus Bechstein est le fils de Johann Andreas Bechstein et de Catharina Elisabetha, née Keysser. Il fait ses études à Gotha et à l'université d'Iéna où il étudie la théologie et l'histoire naturelle.
 À partir de 1785, il enseigne les mathématiques, la botanique, la zoologie, l'entomologie, et l'ornithologie. Ses parents souhaite qu'il fasse des études de théologie, mais il préfère opter pour l'histoire naturelle et se spécialise en sylviculture.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Matth%C3%A4us_Bechstein</t>
+          <t>Johann_Matthäus_Bechstein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gemeinnützige Naturgeschichte Deutschlands nach allen drey Reichen. Leipzig 1789–09.
 Kurze aber gründliche Musterung aller bisher mit Recht oder Unrecht von dem Jäger als schädlich geachteten und getödteten Thiere, nebst Aufzählung einiger wirklich schädlichen, die er, seinem Berufe nach, nicht dafür erkennt, ... Ettinger, Gotha 1792–1805.
